--- a/00-data/a-raw/Suppl. Table S1, Major and trace element data, Final.xlsx
+++ b/00-data/a-raw/Suppl. Table S1, Major and trace element data, Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianwackett/Library/CloudStorage/Dropbox/Mac/Documents/GitHub/M006-wackett-SBB-geochem/00-data/a-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{910CAA77-4462-6649-82AD-2B27FC851E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB45D26E-F538-A049-B634-5C9ACBB5A80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22740" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
